--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -540,10 +540,10 @@
         <v>0.489044</v>
       </c>
       <c r="I2">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J2">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N2">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q2">
-        <v>1.046265515363556</v>
+        <v>0.5898702558182222</v>
       </c>
       <c r="R2">
-        <v>9.416389638272001</v>
+        <v>5.308832302364</v>
       </c>
       <c r="S2">
-        <v>0.4219440530231724</v>
+        <v>0.1203824757556946</v>
       </c>
       <c r="T2">
-        <v>0.4219440530231723</v>
+        <v>0.1203824757556946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.489044</v>
       </c>
       <c r="I3">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J3">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>11.582076</v>
       </c>
       <c r="O3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q3">
         <v>0.6293494194826668</v>
@@ -632,10 +632,10 @@
         <v>5.664144775344001</v>
       </c>
       <c r="S3">
-        <v>0.2538077007460424</v>
+        <v>0.1284395008655599</v>
       </c>
       <c r="T3">
-        <v>0.2538077007460423</v>
+        <v>0.1284395008655599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.489044</v>
       </c>
       <c r="I4">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J4">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N4">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O4">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P4">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q4">
-        <v>0.7785829349057778</v>
+        <v>2.029740552376444</v>
       </c>
       <c r="R4">
-        <v>7.007246414152</v>
+        <v>18.267664971388</v>
       </c>
       <c r="S4">
-        <v>0.3139914623437315</v>
+        <v>0.4142354872562116</v>
       </c>
       <c r="T4">
-        <v>0.3139914623437314</v>
+        <v>0.4142354872562115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H5">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N5">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q5">
-        <v>0.01084252875377778</v>
+        <v>0.2997513651627777</v>
       </c>
       <c r="R5">
-        <v>0.097582758784</v>
+        <v>2.697762286465</v>
       </c>
       <c r="S5">
-        <v>0.004372638169002048</v>
+        <v>0.06117414989740481</v>
       </c>
       <c r="T5">
-        <v>0.004372638169002047</v>
+        <v>0.06117414989740481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H6">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.582076</v>
       </c>
       <c r="O6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q6">
-        <v>0.006521995685333334</v>
+        <v>0.3198132907933334</v>
       </c>
       <c r="R6">
-        <v>0.058697961168</v>
+        <v>2.87831961714</v>
       </c>
       <c r="S6">
-        <v>0.002630228419898706</v>
+        <v>0.06526844733317375</v>
       </c>
       <c r="T6">
-        <v>0.002630228419898705</v>
+        <v>0.06526844733317373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H7">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N7">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O7">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P7">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q7">
-        <v>0.008068513904888889</v>
+        <v>1.031442924100555</v>
       </c>
       <c r="R7">
-        <v>0.072616625144</v>
+        <v>9.282986316904998</v>
       </c>
       <c r="S7">
-        <v>0.003253917298153195</v>
+        <v>0.2104999388919554</v>
       </c>
       <c r="T7">
-        <v>0.003253917298153194</v>
+        <v>0.2104999388919553</v>
       </c>
     </row>
   </sheetData>
